--- a/data/trans_camb/P19C03-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.3754498030107856</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-6.152287705151696</v>
+        <v>-6.152287705151693</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.455015142483934</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.429708394915044</v>
+        <v>-5.596362026441872</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.050216867880291</v>
+        <v>-6.368831288205606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.326394975621502</v>
+        <v>-9.496890663841837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.682042451450874</v>
+        <v>-2.447847334191783</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.77439015590953</v>
+        <v>-4.360964591924542</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.91029373038752</v>
+        <v>-10.61799430818116</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.905675487648649</v>
+        <v>-1.766842743332956</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.152997235421331</v>
+        <v>-3.478491254363419</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.358154049144728</v>
+        <v>-8.159899511240381</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.013542406628866</v>
+        <v>5.63152210199546</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.169562587265573</v>
+        <v>5.217630304523877</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.755872817470497</v>
+        <v>3.358272582264737</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.141855054967368</v>
+        <v>6.573958869015883</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.758429883300276</v>
+        <v>4.392646483048898</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.061397152217079</v>
+        <v>-1.55174283671405</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.071901848368073</v>
+        <v>4.641336996202545</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.606286496117904</v>
+        <v>3.284041528138322</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.520461534465979</v>
+        <v>-0.4933772194582084</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.01427526976896472</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2339209289312169</v>
+        <v>-0.2339209289312167</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.05447842146274123</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1768357602113423</v>
+        <v>-0.1771086284070424</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1955326542313199</v>
+        <v>-0.2029706479382343</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2995180823940478</v>
+        <v>-0.3145471181575601</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06072957799619566</v>
+        <v>-0.08411199492156922</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.129492624532617</v>
+        <v>-0.1482300407796954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3795576458609674</v>
+        <v>-0.3765586236297656</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06723613710352454</v>
+        <v>-0.06046525197651289</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1064461625394649</v>
+        <v>-0.1200860142195466</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2917935336038951</v>
+        <v>-0.2921899106001069</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2425257487388461</v>
+        <v>0.2431122224153301</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2189354518668856</v>
+        <v>0.217610232793588</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2054584337624135</v>
+        <v>0.1409386261053623</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.296681136981359</v>
+        <v>0.2713331782351439</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1986430220665943</v>
+        <v>0.1827715768504576</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08190997043974885</v>
+        <v>-0.0666530331853271</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2034601376261292</v>
+        <v>0.1909137390017495</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1464146621842326</v>
+        <v>0.1323048006619196</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.02263900080692166</v>
+        <v>-0.0207112551003832</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-3.577269454677473</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-13.61527557094466</v>
+        <v>-13.61527557094465</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.818753416559169</v>
+        <v>-4.454817816377032</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.592803901797483</v>
+        <v>-3.056115720617877</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.74066404325788</v>
+        <v>-15.31842755725264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.3435617927058</v>
+        <v>-10.13454748108006</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.24227865227806</v>
+        <v>-12.71512383955042</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-20.28274919471095</v>
+        <v>-20.28174547961273</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.861857428976729</v>
+        <v>-6.157650670778128</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.365739782527205</v>
+        <v>-6.571569617477617</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-16.70748896650791</v>
+        <v>-16.73827445936577</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.518305185550289</v>
+        <v>5.089041122254186</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.837821929475453</v>
+        <v>6.573509302022145</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-7.01228735032288</v>
+        <v>-6.217425734633903</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.357634817466083</v>
+        <v>-1.051566870482911</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.743426421331113</v>
+        <v>-3.760372723667393</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-12.52147596593255</v>
+        <v>-12.41064960795212</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3360401901231959</v>
+        <v>0.2715112351632415</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1262376982924033</v>
+        <v>-0.3395418142552563</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-10.79232315385819</v>
+        <v>-10.84512279906971</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1087097735535622</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.4137551120873525</v>
+        <v>-0.4137551120873524</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1452986774752842</v>
+        <v>-0.1331048675785693</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1062030639681302</v>
+        <v>-0.09067455231571822</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4672870865325598</v>
+        <v>-0.4602122940069298</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2814929885345597</v>
+        <v>-0.2747460492811898</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3360179593300938</v>
+        <v>-0.3464183605894636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5446427150461988</v>
+        <v>-0.5409384689544725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.172297032684578</v>
+        <v>-0.1773465767446397</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1880968025950397</v>
+        <v>-0.1926534346632982</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.483334312848765</v>
+        <v>-0.4809895493366951</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1545524262215096</v>
+        <v>0.1803299242744946</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1980624586432295</v>
+        <v>0.2284932156184727</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2323856297429638</v>
+        <v>-0.2141736121066531</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.04472377224198717</v>
+        <v>-0.03433930500537639</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1125871479714411</v>
+        <v>-0.1131245653481046</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3852914218664446</v>
+        <v>-0.3832560637826687</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01044752636643618</v>
+        <v>0.008798498804311664</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.004732012141815982</v>
+        <v>-0.01176387339515862</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3379896586116894</v>
+        <v>-0.3426821102367382</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-7.957190303006772</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-18.73184687278841</v>
+        <v>-18.7318468727884</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.557376554596344</v>
+        <v>-9.894428480404299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.9572486140079</v>
+        <v>-13.90095665227692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-23.55953575351751</v>
+        <v>-23.37353957034255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.449370604785186</v>
+        <v>-7.685702522573087</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.88571436674583</v>
+        <v>-11.25872874116896</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-21.52782087977775</v>
+        <v>-22.16379728830692</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.118692034962658</v>
+        <v>-7.500741231104397</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-11.52924540842947</v>
+        <v>-11.19519133274646</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-21.61277505244384</v>
+        <v>-21.60913718336922</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.4677525053914189</v>
+        <v>-0.5284418631432199</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.537316675366725</v>
+        <v>-4.722114936176858</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-15.67018401409828</v>
+        <v>-15.0627338280671</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.9035609331035</v>
+        <v>1.642282520470375</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.668131790999468</v>
+        <v>-0.9174942377687182</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-14.13122020728535</v>
+        <v>-14.50857442077558</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.639583981844049</v>
+        <v>-0.5914463878482275</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.321086690043801</v>
+        <v>-4.366110992622179</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-16.09670012693845</v>
+        <v>-15.63952419067981</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2279658818089008</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.5366494739545097</v>
+        <v>-0.5366494739545096</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2494414955915112</v>
+        <v>-0.2606847741779428</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3721960429538955</v>
+        <v>-0.3665981233520307</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6187695807275121</v>
+        <v>-0.6163538195639831</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2035982448383646</v>
+        <v>-0.2079709211079823</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3040267681801628</v>
+        <v>-0.3088286796515197</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.59165628457205</v>
+        <v>-0.601972104177994</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1957982261393837</v>
+        <v>-0.2043952944804169</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3144570492727999</v>
+        <v>-0.3060669621638009</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5896597243192164</v>
+        <v>-0.5953994964337787</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.0140410720003821</v>
+        <v>-0.01060284692918539</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1348714851635774</v>
+        <v>-0.1353056910971295</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.4549780823560541</v>
+        <v>-0.4402451701219401</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.05834386103635766</v>
+        <v>0.05129858576908322</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.05114334671947475</v>
+        <v>-0.02922431839400565</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4493248832611009</v>
+        <v>-0.4535615179986516</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01928196691923181</v>
+        <v>-0.01592680073875058</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1286550318379239</v>
+        <v>-0.1275150253748611</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.4837815727852127</v>
+        <v>-0.4741154838648309</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-9.516296374721781</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-13.40136921773143</v>
+        <v>-13.40136921773142</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.827122937426214</v>
+        <v>-7.441322115902259</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.95922047983875</v>
+        <v>-15.84171444248662</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.86054877706938</v>
+        <v>-18.93312841718293</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.67967722586222</v>
+        <v>-14.23777325288331</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-16.89331784947275</v>
+        <v>-16.60681187598432</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-19.69544449677332</v>
+        <v>-19.30970730557262</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-8.722186370708277</v>
+        <v>-8.77125561148959</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-14.22419539498507</v>
+        <v>-14.39521454819062</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.40844293798683</v>
+        <v>-17.73205657383244</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.659274718505798</v>
+        <v>5.998951556301069</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.707301097979116</v>
+        <v>-3.162417768401216</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.444480318192623</v>
+        <v>-7.764186109006359</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.507028948616308</v>
+        <v>-0.8297061707157484</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.089839424650379</v>
+        <v>-3.043841804254475</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-7.71597396580488</v>
+        <v>-7.331472543202276</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8348462467532326</v>
+        <v>0.9648303343418771</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.100699889975671</v>
+        <v>-4.692559211483383</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-8.967356149265312</v>
+        <v>-9.627755369656267</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.2960457885270388</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4169078768862197</v>
+        <v>-0.4169078768862195</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1968548907764087</v>
+        <v>-0.2065404531340966</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4471763630408437</v>
+        <v>-0.450312815641949</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5286614080210531</v>
+        <v>-0.5292367481853932</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3964199003399337</v>
+        <v>-0.3869501670685458</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4558531923781426</v>
+        <v>-0.4456067722189573</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5213349878017994</v>
+        <v>-0.5185019351167041</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.25119587774871</v>
+        <v>-0.2504846801557834</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4084455265813243</v>
+        <v>-0.4179820856646541</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4941327307374927</v>
+        <v>-0.49767573328882</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2352263421119138</v>
+        <v>0.2178766570398654</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.08304135207682546</v>
+        <v>-0.1081227536810439</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2695908562394208</v>
+        <v>-0.2722625978712977</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.01341092739686503</v>
+        <v>-0.02205816338472002</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1095521337714299</v>
+        <v>-0.09451492672402886</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2727547051933868</v>
+        <v>-0.2582487271912204</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03346428123563047</v>
+        <v>0.03310216424820522</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1690335926287055</v>
+        <v>-0.1641969720307629</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3146766346305027</v>
+        <v>-0.3264298998581371</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.952909034199802</v>
+        <v>-4.81391693540019</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.160351402844587</v>
+        <v>-7.108746273837063</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.59716698506726</v>
+        <v>-15.66457676678091</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.431919021118736</v>
+        <v>-5.725081899884338</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.0846318872689</v>
+        <v>-8.286395665790995</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-15.88314942738072</v>
+        <v>-15.958536445566</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.515457144172384</v>
+        <v>-4.489728175187161</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.095790805459706</v>
+        <v>-6.848412320168759</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-15.02210167544507</v>
+        <v>-14.94704166755054</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3280983216471287</v>
+        <v>0.3757611896724145</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.171044516355205</v>
+        <v>-1.868986891694779</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-10.57890143667367</v>
+        <v>-10.36940061739495</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.4658603659047189</v>
+        <v>-0.6618722684849419</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-3.161534928152078</v>
+        <v>-3.35203356420852</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-11.68167220744222</v>
+        <v>-11.63239654856368</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.7864176931577258</v>
+        <v>-0.9778154415010943</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.434058976808671</v>
+        <v>-3.410519869309393</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-11.94241478947766</v>
+        <v>-11.70547822129995</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1435387538559207</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.4098030992949463</v>
+        <v>-0.4098030992949462</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.09685734136698718</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1615387734261047</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.4195700210590104</v>
+        <v>-0.4195700210590103</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1472462398991229</v>
+        <v>-0.1441836425749244</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2149074545951303</v>
+        <v>-0.2125419669675435</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4666305827366445</v>
+        <v>-0.4701844020184098</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.164568520583961</v>
+        <v>-0.1697198403019853</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2448311054559786</v>
+        <v>-0.2479821513878988</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.476904432028378</v>
+        <v>-0.4792909415683021</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1369136160192516</v>
+        <v>-0.1366749902814061</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2143227447865206</v>
+        <v>-0.2073087805287266</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4546410849871284</v>
+        <v>-0.4534529475538511</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01070854158608097</v>
+        <v>0.01278915361751464</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.0714554041286551</v>
+        <v>-0.06247705976252268</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.347955309720376</v>
+        <v>-0.343173049403483</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.01540021675769689</v>
+        <v>-0.02038988275086634</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1041904616937023</v>
+        <v>-0.1089494160751315</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3795802676099717</v>
+        <v>-0.3805860125456203</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.02511633180667434</v>
+        <v>-0.0322780436936885</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1098972474891506</v>
+        <v>-0.109019320456478</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3832885123165997</v>
+        <v>-0.3751025015572634</v>
       </c>
     </row>
     <row r="34">
